--- a/medicine/Enfance/Gruffalo/Gruffalo.xlsx
+++ b/medicine/Enfance/Gruffalo/Gruffalo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gruffalo est un livre pour enfant écrit par Julia Donaldson et illustré par Axel Scheffler, publié pour la première fois au Royaume-Uni en 1999.
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livre suit les aventures d'une souris qui traverse la forêt et qui lors de chaque rencontre « périlleuse » qu'elle fait, prétend qu'elle attend le Gruffalo[1], un personnage qu'elle pense inventer de toutes pièces...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre suit les aventures d'une souris qui traverse la forêt et qui lors de chaque rencontre « périlleuse » qu'elle fait, prétend qu'elle attend le Gruffalo, un personnage qu'elle pense inventer de toutes pièces...
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Réception</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cinq ans après sa sortie, l'ouvrage était déjà traduit en 29 langues et s'était vendu à plus d'un million d'exemplaires[2]. En février 2015, le nombre de traductions s'élève à 58 pour 13 millions de copies écoulées[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinq ans après sa sortie, l'ouvrage était déjà traduit en 29 langues et s'était vendu à plus d'un million d'exemplaires. En février 2015, le nombre de traductions s'élève à 58 pour 13 millions de copies écoulées.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gruffalo (The Gruffalo) est un court métrage d'animation britannique réalisé par Max Lang et Jakob Schuh, diffusé en Grande-Bretagne à la télévision sur la BBC le 25 décembre 2009. Le film a bénéficié d'une sortie au cinéma en France le 19 octobre 2011.
 </t>
